--- a/PRECIOS_LAB_SJ.xlsx
+++ b/PRECIOS_LAB_SJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangr\Desktop\Programa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangr\Desktop\ConsultaPrecios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96594F4F-B481-4BDC-AB06-6EF373BFC48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A82CA-71AC-4AE3-B7C8-D36162E54AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7736,12 +7736,6 @@
     <t>CLADOSPORIUM HERBARUM IGE</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
     <t>9,500.00</t>
   </si>
   <si>
@@ -8178,6 +8172,12 @@
   </si>
   <si>
     <t>86,000.00</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -8602,10 +8602,10 @@
   <dimension ref="A1:B774"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.77734375" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
@@ -8613,10 +8613,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>772</v>
+        <v>918</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>773</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8624,7 +8624,7 @@
         <v>771</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8640,7 +8640,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8648,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8656,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8664,7 +8664,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8688,7 +8688,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8696,7 +8696,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8712,7 +8712,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8720,7 +8720,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8728,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8736,7 +8736,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8744,7 +8744,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8760,7 +8760,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8768,7 +8768,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8776,7 +8776,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8784,7 +8784,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8800,7 +8800,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8808,7 +8808,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8816,7 +8816,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8824,7 +8824,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8840,7 +8840,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8848,7 +8848,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8856,7 +8856,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8864,7 +8864,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8872,7 +8872,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8880,7 +8880,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8888,7 +8888,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8904,7 +8904,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8912,7 +8912,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8920,7 +8920,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8928,7 +8928,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8944,7 +8944,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8960,7 +8960,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8976,7 +8976,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8984,7 +8984,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8992,7 +8992,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9000,7 +9000,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9008,7 +9008,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9016,7 +9016,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9024,7 +9024,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9032,7 +9032,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9040,7 +9040,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9048,7 +9048,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9056,7 +9056,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9064,7 +9064,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9072,7 +9072,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9080,7 +9080,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9088,7 +9088,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9096,7 +9096,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9104,7 +9104,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9120,7 +9120,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9128,7 +9128,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9136,7 +9136,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9144,7 +9144,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9152,7 +9152,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9160,7 +9160,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9168,7 +9168,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9176,7 +9176,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9184,7 +9184,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9192,7 +9192,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9200,7 +9200,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9208,7 +9208,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,7 +9216,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9224,7 +9224,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9232,7 +9232,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9240,7 +9240,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9248,7 +9248,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9256,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9272,7 +9272,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9280,7 +9280,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9288,7 +9288,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9296,7 +9296,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9304,7 +9304,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9312,7 +9312,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9320,7 +9320,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9328,7 +9328,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9336,7 +9336,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9344,7 +9344,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9360,7 +9360,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9368,7 +9368,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9376,7 +9376,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9384,7 +9384,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9392,7 +9392,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9400,7 +9400,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9408,7 +9408,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9416,7 +9416,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9432,7 +9432,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9440,7 +9440,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9448,7 +9448,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9456,7 +9456,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9464,7 +9464,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9480,7 +9480,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9488,7 +9488,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9496,7 +9496,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9504,7 +9504,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9512,7 +9512,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9528,7 +9528,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9544,7 +9544,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9560,7 +9560,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9568,7 +9568,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9576,7 +9576,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9584,7 +9584,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9592,7 +9592,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9600,7 +9600,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9608,7 +9608,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9616,7 +9616,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9624,7 +9624,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9640,7 +9640,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9648,7 +9648,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9656,7 +9656,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9664,7 +9664,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9672,7 +9672,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9680,7 +9680,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9688,7 +9688,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9696,7 +9696,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9704,7 +9704,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9712,7 +9712,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9720,7 +9720,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9728,7 +9728,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9736,7 +9736,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9744,7 +9744,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9752,7 +9752,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9760,7 +9760,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9768,7 +9768,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9776,7 +9776,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,7 +9784,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9800,7 +9800,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9808,7 +9808,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9816,7 +9816,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9824,7 +9824,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9832,7 +9832,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9840,7 +9840,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9848,7 +9848,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9864,7 +9864,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9872,7 +9872,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9880,7 +9880,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9888,7 +9888,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9896,7 +9896,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9904,7 +9904,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9912,7 +9912,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9928,7 +9928,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9936,7 +9936,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9944,7 +9944,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9952,7 +9952,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9960,7 +9960,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9968,7 +9968,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9984,7 +9984,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10000,7 +10000,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10008,7 +10008,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10016,7 +10016,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10024,7 +10024,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10040,7 +10040,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10048,7 +10048,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10056,7 +10056,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10064,7 +10064,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10072,7 +10072,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10080,7 +10080,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10088,7 +10088,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10104,7 +10104,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10112,7 +10112,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,7 +10120,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10128,7 +10128,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10136,7 +10136,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10144,7 +10144,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10152,7 +10152,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10160,7 +10160,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10168,7 +10168,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10176,7 +10176,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10184,7 +10184,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10192,7 +10192,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10200,7 +10200,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10216,7 +10216,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10224,7 +10224,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10240,7 +10240,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10248,7 +10248,7 @@
         <v>202</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10256,7 +10256,7 @@
         <v>203</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10264,7 +10264,7 @@
         <v>204</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10272,7 +10272,7 @@
         <v>205</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10280,7 +10280,7 @@
         <v>206</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10288,7 +10288,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10296,7 +10296,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10304,7 +10304,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10312,7 +10312,7 @@
         <v>210</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10320,7 +10320,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10336,7 +10336,7 @@
         <v>213</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10344,7 +10344,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10360,7 +10360,7 @@
         <v>216</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10368,7 +10368,7 @@
         <v>217</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10376,7 +10376,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10384,7 +10384,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10392,7 +10392,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10400,7 +10400,7 @@
         <v>221</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10408,7 +10408,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10416,7 +10416,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10424,7 +10424,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10432,7 +10432,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10440,7 +10440,7 @@
         <v>226</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10448,7 +10448,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10456,7 +10456,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10472,7 +10472,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10480,7 +10480,7 @@
         <v>231</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10488,7 +10488,7 @@
         <v>232</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10496,7 +10496,7 @@
         <v>233</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10504,7 +10504,7 @@
         <v>234</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10512,7 +10512,7 @@
         <v>235</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10520,7 +10520,7 @@
         <v>236</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10528,7 +10528,7 @@
         <v>237</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10536,7 +10536,7 @@
         <v>238</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10544,7 +10544,7 @@
         <v>239</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10552,7 +10552,7 @@
         <v>240</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10560,7 +10560,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10568,7 +10568,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10576,7 +10576,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10584,7 +10584,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10592,7 +10592,7 @@
         <v>245</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,7 +10600,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10608,7 +10608,7 @@
         <v>247</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10616,7 +10616,7 @@
         <v>248</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10624,7 +10624,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10632,7 +10632,7 @@
         <v>250</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10640,7 +10640,7 @@
         <v>251</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10648,7 +10648,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10656,7 +10656,7 @@
         <v>253</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10664,7 +10664,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10680,7 +10680,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10688,7 +10688,7 @@
         <v>257</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10696,7 +10696,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10704,7 +10704,7 @@
         <v>259</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
         <v>260</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10728,7 +10728,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10736,7 +10736,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10744,7 +10744,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10760,7 +10760,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10768,7 +10768,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10776,7 +10776,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10784,7 +10784,7 @@
         <v>269</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10792,7 +10792,7 @@
         <v>270</v>
       </c>
       <c r="B273" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10808,7 +10808,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10816,7 +10816,7 @@
         <v>273</v>
       </c>
       <c r="B276" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10824,7 +10824,7 @@
         <v>274</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10832,7 +10832,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10840,7 +10840,7 @@
         <v>276</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10848,7 +10848,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="16" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10856,7 +10856,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10864,7 +10864,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
         <v>280</v>
       </c>
       <c r="B283" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10880,7 +10880,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10888,7 +10888,7 @@
         <v>282</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10896,7 +10896,7 @@
         <v>283</v>
       </c>
       <c r="B286" s="16" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10904,7 +10904,7 @@
         <v>284</v>
       </c>
       <c r="B287" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>285</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10920,7 +10920,7 @@
         <v>286</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10928,7 +10928,7 @@
         <v>287</v>
       </c>
       <c r="B290" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10936,7 +10936,7 @@
         <v>288</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10944,7 +10944,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10952,7 +10952,7 @@
         <v>290</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10960,7 +10960,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10976,7 +10976,7 @@
         <v>293</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10984,7 +10984,7 @@
         <v>294</v>
       </c>
       <c r="B297" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10992,7 +10992,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11000,7 +11000,7 @@
         <v>296</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11008,7 +11008,7 @@
         <v>297</v>
       </c>
       <c r="B300" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11016,7 +11016,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11024,7 +11024,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11032,7 +11032,7 @@
         <v>300</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11040,7 +11040,7 @@
         <v>301</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11048,7 +11048,7 @@
         <v>302</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11056,7 +11056,7 @@
         <v>303</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11064,7 +11064,7 @@
         <v>304</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
         <v>305</v>
       </c>
       <c r="B308" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11080,7 +11080,7 @@
         <v>306</v>
       </c>
       <c r="B309" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11088,7 +11088,7 @@
         <v>307</v>
       </c>
       <c r="B310" s="16" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11096,7 +11096,7 @@
         <v>308</v>
       </c>
       <c r="B311" s="16" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11104,7 +11104,7 @@
         <v>309</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11112,7 +11112,7 @@
         <v>310</v>
       </c>
       <c r="B313" s="16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11120,7 +11120,7 @@
         <v>311</v>
       </c>
       <c r="B314" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11128,7 +11128,7 @@
         <v>312</v>
       </c>
       <c r="B315" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11136,7 +11136,7 @@
         <v>313</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11144,7 +11144,7 @@
         <v>314</v>
       </c>
       <c r="B317" s="16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
         <v>315</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11160,7 +11160,7 @@
         <v>316</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11168,7 +11168,7 @@
         <v>317</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11176,7 +11176,7 @@
         <v>318</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11184,7 +11184,7 @@
         <v>319</v>
       </c>
       <c r="B322" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11192,7 +11192,7 @@
         <v>320</v>
       </c>
       <c r="B323" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11200,7 +11200,7 @@
         <v>321</v>
       </c>
       <c r="B324" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11208,7 +11208,7 @@
         <v>322</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11216,7 +11216,7 @@
         <v>323</v>
       </c>
       <c r="B326" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11224,7 +11224,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11232,7 +11232,7 @@
         <v>325</v>
       </c>
       <c r="B328" s="16" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11240,7 +11240,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11248,7 +11248,7 @@
         <v>327</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11256,7 +11256,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11264,7 +11264,7 @@
         <v>329</v>
       </c>
       <c r="B332" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11272,7 +11272,7 @@
         <v>330</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11280,7 +11280,7 @@
         <v>331</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11288,7 +11288,7 @@
         <v>332</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11296,7 +11296,7 @@
         <v>333</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11304,7 +11304,7 @@
         <v>334</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11312,7 +11312,7 @@
         <v>335</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11320,7 +11320,7 @@
         <v>336</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11328,7 +11328,7 @@
         <v>337</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
         <v>338</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11344,7 +11344,7 @@
         <v>339</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11352,7 +11352,7 @@
         <v>340</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11360,7 +11360,7 @@
         <v>341</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11368,7 +11368,7 @@
         <v>342</v>
       </c>
       <c r="B345" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11376,7 +11376,7 @@
         <v>343</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11384,7 +11384,7 @@
         <v>344</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11392,7 +11392,7 @@
         <v>345</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11400,7 +11400,7 @@
         <v>346</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11408,7 +11408,7 @@
         <v>347</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11416,7 +11416,7 @@
         <v>348</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11424,7 +11424,7 @@
         <v>349</v>
       </c>
       <c r="B352" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11432,7 +11432,7 @@
         <v>350</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11440,7 +11440,7 @@
         <v>351</v>
       </c>
       <c r="B354" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11448,7 +11448,7 @@
         <v>352</v>
       </c>
       <c r="B355" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11456,7 +11456,7 @@
         <v>353</v>
       </c>
       <c r="B356" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11464,7 +11464,7 @@
         <v>354</v>
       </c>
       <c r="B357" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11472,7 +11472,7 @@
         <v>355</v>
       </c>
       <c r="B358" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11480,7 +11480,7 @@
         <v>356</v>
       </c>
       <c r="B359" s="16" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11488,7 +11488,7 @@
         <v>357</v>
       </c>
       <c r="B360" s="16" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11496,7 +11496,7 @@
         <v>358</v>
       </c>
       <c r="B361" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11504,7 +11504,7 @@
         <v>359</v>
       </c>
       <c r="B362" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11512,7 +11512,7 @@
         <v>360</v>
       </c>
       <c r="B363" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11520,7 +11520,7 @@
         <v>361</v>
       </c>
       <c r="B364" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11528,7 +11528,7 @@
         <v>362</v>
       </c>
       <c r="B365" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11536,7 +11536,7 @@
         <v>363</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11544,7 +11544,7 @@
         <v>364</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11552,7 +11552,7 @@
         <v>365</v>
       </c>
       <c r="B368" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11560,7 +11560,7 @@
         <v>366</v>
       </c>
       <c r="B369" s="16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11568,7 +11568,7 @@
         <v>367</v>
       </c>
       <c r="B370" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
         <v>368</v>
       </c>
       <c r="B371" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11584,7 +11584,7 @@
         <v>369</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11592,7 +11592,7 @@
         <v>370</v>
       </c>
       <c r="B373" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11600,7 +11600,7 @@
         <v>371</v>
       </c>
       <c r="B374" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11608,7 +11608,7 @@
         <v>372</v>
       </c>
       <c r="B375" s="16" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11616,7 +11616,7 @@
         <v>373</v>
       </c>
       <c r="B376" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11624,7 +11624,7 @@
         <v>374</v>
       </c>
       <c r="B377" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11632,7 +11632,7 @@
         <v>375</v>
       </c>
       <c r="B378" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11640,7 +11640,7 @@
         <v>376</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
         <v>377</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11656,7 +11656,7 @@
         <v>378</v>
       </c>
       <c r="B381" s="16" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11664,7 +11664,7 @@
         <v>379</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11672,7 +11672,7 @@
         <v>380</v>
       </c>
       <c r="B383" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11680,7 +11680,7 @@
         <v>381</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11688,7 +11688,7 @@
         <v>382</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11696,7 +11696,7 @@
         <v>383</v>
       </c>
       <c r="B386" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11704,7 +11704,7 @@
         <v>384</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11712,7 +11712,7 @@
         <v>385</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11720,7 +11720,7 @@
         <v>386</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11728,7 +11728,7 @@
         <v>387</v>
       </c>
       <c r="B390" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11736,7 +11736,7 @@
         <v>388</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11744,7 +11744,7 @@
         <v>389</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11752,7 +11752,7 @@
         <v>390</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11760,7 +11760,7 @@
         <v>391</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11768,7 +11768,7 @@
         <v>392</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11776,7 +11776,7 @@
         <v>393</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11784,7 +11784,7 @@
         <v>394</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11792,7 +11792,7 @@
         <v>395</v>
       </c>
       <c r="B398" s="16" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11800,7 +11800,7 @@
         <v>396</v>
       </c>
       <c r="B399" s="16" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11808,7 +11808,7 @@
         <v>397</v>
       </c>
       <c r="B400" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11816,7 +11816,7 @@
         <v>398</v>
       </c>
       <c r="B401" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11824,7 +11824,7 @@
         <v>399</v>
       </c>
       <c r="B402" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11832,7 +11832,7 @@
         <v>400</v>
       </c>
       <c r="B403" s="16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11840,7 +11840,7 @@
         <v>401</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11848,7 +11848,7 @@
         <v>402</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11856,7 +11856,7 @@
         <v>403</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11864,7 +11864,7 @@
         <v>404</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11872,7 +11872,7 @@
         <v>405</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11880,7 +11880,7 @@
         <v>406</v>
       </c>
       <c r="B409" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11888,7 +11888,7 @@
         <v>407</v>
       </c>
       <c r="B410" s="16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11896,7 +11896,7 @@
         <v>408</v>
       </c>
       <c r="B411" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11904,7 +11904,7 @@
         <v>409</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11912,7 +11912,7 @@
         <v>410</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11920,7 +11920,7 @@
         <v>411</v>
       </c>
       <c r="B414" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11928,7 +11928,7 @@
         <v>412</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11936,7 +11936,7 @@
         <v>413</v>
       </c>
       <c r="B416" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11944,7 +11944,7 @@
         <v>414</v>
       </c>
       <c r="B417" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11952,7 +11952,7 @@
         <v>415</v>
       </c>
       <c r="B418" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11960,7 +11960,7 @@
         <v>416</v>
       </c>
       <c r="B419" s="16" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11968,7 +11968,7 @@
         <v>417</v>
       </c>
       <c r="B420" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11976,7 +11976,7 @@
         <v>418</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11984,7 +11984,7 @@
         <v>419</v>
       </c>
       <c r="B422" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -11992,7 +11992,7 @@
         <v>420</v>
       </c>
       <c r="B423" s="16" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12000,7 +12000,7 @@
         <v>421</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12008,7 +12008,7 @@
         <v>422</v>
       </c>
       <c r="B425" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12016,7 +12016,7 @@
         <v>423</v>
       </c>
       <c r="B426" s="16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12024,7 +12024,7 @@
         <v>424</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12032,7 +12032,7 @@
         <v>425</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12040,7 +12040,7 @@
         <v>426</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12048,7 +12048,7 @@
         <v>427</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12056,7 +12056,7 @@
         <v>428</v>
       </c>
       <c r="B431" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12064,7 +12064,7 @@
         <v>429</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12072,7 +12072,7 @@
         <v>430</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12080,7 +12080,7 @@
         <v>431</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12088,7 +12088,7 @@
         <v>432</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12096,7 +12096,7 @@
         <v>433</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12104,7 +12104,7 @@
         <v>434</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12112,7 +12112,7 @@
         <v>435</v>
       </c>
       <c r="B438" s="16" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12120,7 +12120,7 @@
         <v>436</v>
       </c>
       <c r="B439" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12128,7 +12128,7 @@
         <v>437</v>
       </c>
       <c r="B440" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12136,7 +12136,7 @@
         <v>438</v>
       </c>
       <c r="B441" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12144,7 +12144,7 @@
         <v>439</v>
       </c>
       <c r="B442" s="16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
         <v>440</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12160,7 +12160,7 @@
         <v>441</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12168,7 +12168,7 @@
         <v>442</v>
       </c>
       <c r="B445" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12176,7 +12176,7 @@
         <v>443</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12184,7 +12184,7 @@
         <v>444</v>
       </c>
       <c r="B447" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12192,7 +12192,7 @@
         <v>445</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12200,7 +12200,7 @@
         <v>446</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12208,7 +12208,7 @@
         <v>447</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12216,7 +12216,7 @@
         <v>448</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12224,7 +12224,7 @@
         <v>449</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12232,7 +12232,7 @@
         <v>450</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12240,7 +12240,7 @@
         <v>451</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12248,7 +12248,7 @@
         <v>452</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12256,7 +12256,7 @@
         <v>453</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12264,7 +12264,7 @@
         <v>454</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12272,7 +12272,7 @@
         <v>455</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12280,7 +12280,7 @@
         <v>456</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12288,7 +12288,7 @@
         <v>457</v>
       </c>
       <c r="B460" s="16" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12296,7 +12296,7 @@
         <v>458</v>
       </c>
       <c r="B461" s="16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12304,7 +12304,7 @@
         <v>459</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12312,7 +12312,7 @@
         <v>460</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12320,7 +12320,7 @@
         <v>461</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12328,7 +12328,7 @@
         <v>462</v>
       </c>
       <c r="B465" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12336,7 +12336,7 @@
         <v>463</v>
       </c>
       <c r="B466" s="16" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12344,7 +12344,7 @@
         <v>464</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12352,7 +12352,7 @@
         <v>465</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12360,7 +12360,7 @@
         <v>466</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12368,7 +12368,7 @@
         <v>467</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12376,7 +12376,7 @@
         <v>468</v>
       </c>
       <c r="B471" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12384,7 +12384,7 @@
         <v>469</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12392,7 +12392,7 @@
         <v>470</v>
       </c>
       <c r="B473" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12400,7 +12400,7 @@
         <v>471</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12408,7 +12408,7 @@
         <v>472</v>
       </c>
       <c r="B475" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12416,7 +12416,7 @@
         <v>473</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12424,7 +12424,7 @@
         <v>474</v>
       </c>
       <c r="B477" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12432,7 +12432,7 @@
         <v>475</v>
       </c>
       <c r="B478" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12440,7 +12440,7 @@
         <v>476</v>
       </c>
       <c r="B479" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12448,7 +12448,7 @@
         <v>477</v>
       </c>
       <c r="B480" s="16" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12456,7 +12456,7 @@
         <v>478</v>
       </c>
       <c r="B481" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12464,7 +12464,7 @@
         <v>479</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12472,7 +12472,7 @@
         <v>480</v>
       </c>
       <c r="B483" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12480,7 +12480,7 @@
         <v>481</v>
       </c>
       <c r="B484" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12488,7 +12488,7 @@
         <v>482</v>
       </c>
       <c r="B485" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12496,7 +12496,7 @@
         <v>483</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12504,7 +12504,7 @@
         <v>484</v>
       </c>
       <c r="B487" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12512,7 +12512,7 @@
         <v>485</v>
       </c>
       <c r="B488" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12520,7 +12520,7 @@
         <v>486</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12528,7 +12528,7 @@
         <v>487</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12536,7 +12536,7 @@
         <v>488</v>
       </c>
       <c r="B491" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12544,7 +12544,7 @@
         <v>489</v>
       </c>
       <c r="B492" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12552,7 +12552,7 @@
         <v>490</v>
       </c>
       <c r="B493" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12560,7 +12560,7 @@
         <v>491</v>
       </c>
       <c r="B494" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12568,7 +12568,7 @@
         <v>492</v>
       </c>
       <c r="B495" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12576,7 +12576,7 @@
         <v>493</v>
       </c>
       <c r="B496" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12584,7 +12584,7 @@
         <v>494</v>
       </c>
       <c r="B497" s="16" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12592,7 +12592,7 @@
         <v>495</v>
       </c>
       <c r="B498" s="16" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12600,7 +12600,7 @@
         <v>496</v>
       </c>
       <c r="B499" s="16" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12608,7 +12608,7 @@
         <v>497</v>
       </c>
       <c r="B500" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12616,7 +12616,7 @@
         <v>498</v>
       </c>
       <c r="B501" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12624,7 +12624,7 @@
         <v>499</v>
       </c>
       <c r="B502" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12632,7 +12632,7 @@
         <v>500</v>
       </c>
       <c r="B503" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12640,7 +12640,7 @@
         <v>501</v>
       </c>
       <c r="B504" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12648,7 +12648,7 @@
         <v>502</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12656,7 +12656,7 @@
         <v>503</v>
       </c>
       <c r="B506" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12664,7 +12664,7 @@
         <v>504</v>
       </c>
       <c r="B507" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12672,7 +12672,7 @@
         <v>505</v>
       </c>
       <c r="B508" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12680,7 +12680,7 @@
         <v>506</v>
       </c>
       <c r="B509" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12688,7 +12688,7 @@
         <v>507</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12696,7 +12696,7 @@
         <v>508</v>
       </c>
       <c r="B511" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12704,7 +12704,7 @@
         <v>509</v>
       </c>
       <c r="B512" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12712,7 +12712,7 @@
         <v>510</v>
       </c>
       <c r="B513" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12720,7 +12720,7 @@
         <v>511</v>
       </c>
       <c r="B514" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12728,7 +12728,7 @@
         <v>512</v>
       </c>
       <c r="B515" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12736,7 +12736,7 @@
         <v>513</v>
       </c>
       <c r="B516" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12744,7 +12744,7 @@
         <v>514</v>
       </c>
       <c r="B517" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>515</v>
       </c>
       <c r="B518" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12760,7 +12760,7 @@
         <v>516</v>
       </c>
       <c r="B519" s="16" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12768,7 +12768,7 @@
         <v>517</v>
       </c>
       <c r="B520" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12776,7 +12776,7 @@
         <v>518</v>
       </c>
       <c r="B521" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12784,7 +12784,7 @@
         <v>519</v>
       </c>
       <c r="B522" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12792,7 +12792,7 @@
         <v>520</v>
       </c>
       <c r="B523" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12800,7 +12800,7 @@
         <v>521</v>
       </c>
       <c r="B524" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12808,7 +12808,7 @@
         <v>522</v>
       </c>
       <c r="B525" s="16" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12816,7 +12816,7 @@
         <v>523</v>
       </c>
       <c r="B526" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12824,7 +12824,7 @@
         <v>524</v>
       </c>
       <c r="B527" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12832,7 +12832,7 @@
         <v>525</v>
       </c>
       <c r="B528" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12840,7 +12840,7 @@
         <v>526</v>
       </c>
       <c r="B529" s="16" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12848,7 +12848,7 @@
         <v>527</v>
       </c>
       <c r="B530" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12856,7 +12856,7 @@
         <v>528</v>
       </c>
       <c r="B531" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12864,7 +12864,7 @@
         <v>529</v>
       </c>
       <c r="B532" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12872,7 +12872,7 @@
         <v>530</v>
       </c>
       <c r="B533" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12880,7 +12880,7 @@
         <v>531</v>
       </c>
       <c r="B534" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12888,7 +12888,7 @@
         <v>532</v>
       </c>
       <c r="B535" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12896,7 +12896,7 @@
         <v>533</v>
       </c>
       <c r="B536" s="16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12904,7 +12904,7 @@
         <v>534</v>
       </c>
       <c r="B537" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12912,7 +12912,7 @@
         <v>535</v>
       </c>
       <c r="B538" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12920,7 +12920,7 @@
         <v>536</v>
       </c>
       <c r="B539" s="16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12928,7 +12928,7 @@
         <v>537</v>
       </c>
       <c r="B540" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12936,7 +12936,7 @@
         <v>538</v>
       </c>
       <c r="B541" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12944,7 +12944,7 @@
         <v>539</v>
       </c>
       <c r="B542" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12952,7 +12952,7 @@
         <v>540</v>
       </c>
       <c r="B543" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12960,7 +12960,7 @@
         <v>541</v>
       </c>
       <c r="B544" s="16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12968,7 +12968,7 @@
         <v>542</v>
       </c>
       <c r="B545" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12976,7 +12976,7 @@
         <v>543</v>
       </c>
       <c r="B546" s="16" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12984,7 +12984,7 @@
         <v>544</v>
       </c>
       <c r="B547" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -12992,7 +12992,7 @@
         <v>545</v>
       </c>
       <c r="B548" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13000,7 +13000,7 @@
         <v>546</v>
       </c>
       <c r="B549" s="16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13008,7 +13008,7 @@
         <v>547</v>
       </c>
       <c r="B550" s="16" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13016,7 +13016,7 @@
         <v>548</v>
       </c>
       <c r="B551" s="16" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13024,7 +13024,7 @@
         <v>549</v>
       </c>
       <c r="B552" s="16" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13032,7 +13032,7 @@
         <v>550</v>
       </c>
       <c r="B553" s="16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13040,7 +13040,7 @@
         <v>551</v>
       </c>
       <c r="B554" s="16" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13048,7 +13048,7 @@
         <v>552</v>
       </c>
       <c r="B555" s="16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13056,7 +13056,7 @@
         <v>553</v>
       </c>
       <c r="B556" s="16" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13064,7 +13064,7 @@
         <v>554</v>
       </c>
       <c r="B557" s="16" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13072,7 +13072,7 @@
         <v>555</v>
       </c>
       <c r="B558" s="16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13080,7 +13080,7 @@
         <v>556</v>
       </c>
       <c r="B559" s="16" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13088,7 +13088,7 @@
         <v>557</v>
       </c>
       <c r="B560" s="16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13096,7 +13096,7 @@
         <v>558</v>
       </c>
       <c r="B561" s="16" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13104,7 +13104,7 @@
         <v>559</v>
       </c>
       <c r="B562" s="16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13112,7 +13112,7 @@
         <v>560</v>
       </c>
       <c r="B563" s="16" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13120,7 +13120,7 @@
         <v>561</v>
       </c>
       <c r="B564" s="16" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13128,7 +13128,7 @@
         <v>562</v>
       </c>
       <c r="B565" s="16" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13136,7 +13136,7 @@
         <v>563</v>
       </c>
       <c r="B566" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13144,7 +13144,7 @@
         <v>564</v>
       </c>
       <c r="B567" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13152,7 +13152,7 @@
         <v>565</v>
       </c>
       <c r="B568" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13160,7 +13160,7 @@
         <v>566</v>
       </c>
       <c r="B569" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13168,7 +13168,7 @@
         <v>567</v>
       </c>
       <c r="B570" s="16" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13176,7 +13176,7 @@
         <v>568</v>
       </c>
       <c r="B571" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13184,7 +13184,7 @@
         <v>569</v>
       </c>
       <c r="B572" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13192,7 +13192,7 @@
         <v>570</v>
       </c>
       <c r="B573" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13200,7 +13200,7 @@
         <v>571</v>
       </c>
       <c r="B574" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13208,7 +13208,7 @@
         <v>572</v>
       </c>
       <c r="B575" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13216,7 +13216,7 @@
         <v>573</v>
       </c>
       <c r="B576" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13224,7 +13224,7 @@
         <v>574</v>
       </c>
       <c r="B577" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13232,7 +13232,7 @@
         <v>575</v>
       </c>
       <c r="B578" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13240,7 +13240,7 @@
         <v>576</v>
       </c>
       <c r="B579" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13248,7 +13248,7 @@
         <v>577</v>
       </c>
       <c r="B580" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13256,7 +13256,7 @@
         <v>578</v>
       </c>
       <c r="B581" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13264,7 +13264,7 @@
         <v>579</v>
       </c>
       <c r="B582" s="16" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13272,7 +13272,7 @@
         <v>580</v>
       </c>
       <c r="B583" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13280,7 +13280,7 @@
         <v>581</v>
       </c>
       <c r="B584" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13288,7 +13288,7 @@
         <v>582</v>
       </c>
       <c r="B585" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13296,7 +13296,7 @@
         <v>583</v>
       </c>
       <c r="B586" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13304,7 +13304,7 @@
         <v>584</v>
       </c>
       <c r="B587" s="16" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13312,7 +13312,7 @@
         <v>585</v>
       </c>
       <c r="B588" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13320,7 +13320,7 @@
         <v>586</v>
       </c>
       <c r="B589" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13328,7 +13328,7 @@
         <v>587</v>
       </c>
       <c r="B590" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13336,7 +13336,7 @@
         <v>588</v>
       </c>
       <c r="B591" s="16" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13344,7 +13344,7 @@
         <v>589</v>
       </c>
       <c r="B592" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13352,7 +13352,7 @@
         <v>590</v>
       </c>
       <c r="B593" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13360,7 +13360,7 @@
         <v>591</v>
       </c>
       <c r="B594" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13368,7 +13368,7 @@
         <v>592</v>
       </c>
       <c r="B595" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13376,7 +13376,7 @@
         <v>593</v>
       </c>
       <c r="B596" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13384,7 +13384,7 @@
         <v>594</v>
       </c>
       <c r="B597" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13392,7 +13392,7 @@
         <v>595</v>
       </c>
       <c r="B598" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13400,7 +13400,7 @@
         <v>596</v>
       </c>
       <c r="B599" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13408,7 +13408,7 @@
         <v>597</v>
       </c>
       <c r="B600" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13416,7 +13416,7 @@
         <v>598</v>
       </c>
       <c r="B601" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13424,7 +13424,7 @@
         <v>599</v>
       </c>
       <c r="B602" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13432,7 +13432,7 @@
         <v>600</v>
       </c>
       <c r="B603" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13440,7 +13440,7 @@
         <v>601</v>
       </c>
       <c r="B604" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13448,7 +13448,7 @@
         <v>602</v>
       </c>
       <c r="B605" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13456,7 +13456,7 @@
         <v>603</v>
       </c>
       <c r="B606" s="16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13464,7 +13464,7 @@
         <v>604</v>
       </c>
       <c r="B607" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13472,7 +13472,7 @@
         <v>605</v>
       </c>
       <c r="B608" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13480,7 +13480,7 @@
         <v>606</v>
       </c>
       <c r="B609" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13488,7 +13488,7 @@
         <v>607</v>
       </c>
       <c r="B610" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13496,7 +13496,7 @@
         <v>608</v>
       </c>
       <c r="B611" s="16" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13504,7 +13504,7 @@
         <v>609</v>
       </c>
       <c r="B612" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13512,7 +13512,7 @@
         <v>610</v>
       </c>
       <c r="B613" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13520,7 +13520,7 @@
         <v>611</v>
       </c>
       <c r="B614" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13528,7 +13528,7 @@
         <v>612</v>
       </c>
       <c r="B615" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13536,7 +13536,7 @@
         <v>613</v>
       </c>
       <c r="B616" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13544,7 +13544,7 @@
         <v>614</v>
       </c>
       <c r="B617" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13552,7 +13552,7 @@
         <v>615</v>
       </c>
       <c r="B618" s="16" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13560,7 +13560,7 @@
         <v>616</v>
       </c>
       <c r="B619" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13568,7 +13568,7 @@
         <v>617</v>
       </c>
       <c r="B620" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13576,7 +13576,7 @@
         <v>618</v>
       </c>
       <c r="B621" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13584,7 +13584,7 @@
         <v>619</v>
       </c>
       <c r="B622" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13592,7 +13592,7 @@
         <v>620</v>
       </c>
       <c r="B623" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13600,7 +13600,7 @@
         <v>621</v>
       </c>
       <c r="B624" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13608,7 +13608,7 @@
         <v>622</v>
       </c>
       <c r="B625" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13616,7 +13616,7 @@
         <v>623</v>
       </c>
       <c r="B626" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13624,7 +13624,7 @@
         <v>624</v>
       </c>
       <c r="B627" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13632,7 +13632,7 @@
         <v>625</v>
       </c>
       <c r="B628" s="16" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13640,7 +13640,7 @@
         <v>626</v>
       </c>
       <c r="B629" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13648,7 +13648,7 @@
         <v>627</v>
       </c>
       <c r="B630" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13656,7 +13656,7 @@
         <v>628</v>
       </c>
       <c r="B631" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13664,7 +13664,7 @@
         <v>629</v>
       </c>
       <c r="B632" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13672,7 +13672,7 @@
         <v>630</v>
       </c>
       <c r="B633" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13680,7 +13680,7 @@
         <v>631</v>
       </c>
       <c r="B634" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13688,7 +13688,7 @@
         <v>632</v>
       </c>
       <c r="B635" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13696,7 +13696,7 @@
         <v>633</v>
       </c>
       <c r="B636" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13704,7 +13704,7 @@
         <v>634</v>
       </c>
       <c r="B637" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13712,7 +13712,7 @@
         <v>635</v>
       </c>
       <c r="B638" s="16" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13720,7 +13720,7 @@
         <v>636</v>
       </c>
       <c r="B639" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13728,7 +13728,7 @@
         <v>637</v>
       </c>
       <c r="B640" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13736,7 +13736,7 @@
         <v>638</v>
       </c>
       <c r="B641" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13744,7 +13744,7 @@
         <v>639</v>
       </c>
       <c r="B642" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13752,7 +13752,7 @@
         <v>640</v>
       </c>
       <c r="B643" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13760,7 +13760,7 @@
         <v>641</v>
       </c>
       <c r="B644" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13768,7 +13768,7 @@
         <v>642</v>
       </c>
       <c r="B645" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13776,7 +13776,7 @@
         <v>643</v>
       </c>
       <c r="B646" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13784,7 +13784,7 @@
         <v>644</v>
       </c>
       <c r="B647" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13792,7 +13792,7 @@
         <v>645</v>
       </c>
       <c r="B648" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13800,7 +13800,7 @@
         <v>646</v>
       </c>
       <c r="B649" s="16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13808,7 +13808,7 @@
         <v>647</v>
       </c>
       <c r="B650" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13816,7 +13816,7 @@
         <v>648</v>
       </c>
       <c r="B651" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13824,7 +13824,7 @@
         <v>649</v>
       </c>
       <c r="B652" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13832,7 +13832,7 @@
         <v>650</v>
       </c>
       <c r="B653" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13840,7 +13840,7 @@
         <v>651</v>
       </c>
       <c r="B654" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13848,7 +13848,7 @@
         <v>652</v>
       </c>
       <c r="B655" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13856,7 +13856,7 @@
         <v>653</v>
       </c>
       <c r="B656" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13864,7 +13864,7 @@
         <v>654</v>
       </c>
       <c r="B657" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13872,7 +13872,7 @@
         <v>655</v>
       </c>
       <c r="B658" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13880,7 +13880,7 @@
         <v>656</v>
       </c>
       <c r="B659" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13888,7 +13888,7 @@
         <v>657</v>
       </c>
       <c r="B660" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13896,7 +13896,7 @@
         <v>658</v>
       </c>
       <c r="B661" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13904,7 +13904,7 @@
         <v>659</v>
       </c>
       <c r="B662" s="16" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13912,7 +13912,7 @@
         <v>660</v>
       </c>
       <c r="B663" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13920,7 +13920,7 @@
         <v>661</v>
       </c>
       <c r="B664" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13928,7 +13928,7 @@
         <v>662</v>
       </c>
       <c r="B665" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13936,7 +13936,7 @@
         <v>663</v>
       </c>
       <c r="B666" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13944,7 +13944,7 @@
         <v>664</v>
       </c>
       <c r="B667" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13952,7 +13952,7 @@
         <v>665</v>
       </c>
       <c r="B668" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13960,7 +13960,7 @@
         <v>666</v>
       </c>
       <c r="B669" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13968,7 +13968,7 @@
         <v>667</v>
       </c>
       <c r="B670" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13976,7 +13976,7 @@
         <v>668</v>
       </c>
       <c r="B671" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13984,7 +13984,7 @@
         <v>669</v>
       </c>
       <c r="B672" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -13992,7 +13992,7 @@
         <v>670</v>
       </c>
       <c r="B673" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14000,7 +14000,7 @@
         <v>671</v>
       </c>
       <c r="B674" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14008,7 +14008,7 @@
         <v>672</v>
       </c>
       <c r="B675" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14016,7 +14016,7 @@
         <v>673</v>
       </c>
       <c r="B676" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14024,7 +14024,7 @@
         <v>674</v>
       </c>
       <c r="B677" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14032,7 +14032,7 @@
         <v>675</v>
       </c>
       <c r="B678" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14040,7 +14040,7 @@
         <v>676</v>
       </c>
       <c r="B679" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14048,7 +14048,7 @@
         <v>677</v>
       </c>
       <c r="B680" s="16" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14056,7 +14056,7 @@
         <v>678</v>
       </c>
       <c r="B681" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14064,7 +14064,7 @@
         <v>679</v>
       </c>
       <c r="B682" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14072,7 +14072,7 @@
         <v>680</v>
       </c>
       <c r="B683" s="16" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14080,7 +14080,7 @@
         <v>681</v>
       </c>
       <c r="B684" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14088,7 +14088,7 @@
         <v>682</v>
       </c>
       <c r="B685" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14096,7 +14096,7 @@
         <v>683</v>
       </c>
       <c r="B686" s="16" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14104,7 +14104,7 @@
         <v>684</v>
       </c>
       <c r="B687" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14112,7 +14112,7 @@
         <v>685</v>
       </c>
       <c r="B688" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14120,7 +14120,7 @@
         <v>686</v>
       </c>
       <c r="B689" s="16" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14128,7 +14128,7 @@
         <v>687</v>
       </c>
       <c r="B690" s="16" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14136,7 +14136,7 @@
         <v>688</v>
       </c>
       <c r="B691" s="16" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14144,7 +14144,7 @@
         <v>689</v>
       </c>
       <c r="B692" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14152,7 +14152,7 @@
         <v>690</v>
       </c>
       <c r="B693" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14160,7 +14160,7 @@
         <v>691</v>
       </c>
       <c r="B694" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14168,7 +14168,7 @@
         <v>692</v>
       </c>
       <c r="B695" s="16" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14176,7 +14176,7 @@
         <v>693</v>
       </c>
       <c r="B696" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14184,7 +14184,7 @@
         <v>694</v>
       </c>
       <c r="B697" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14192,7 +14192,7 @@
         <v>695</v>
       </c>
       <c r="B698" s="16" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14200,7 +14200,7 @@
         <v>696</v>
       </c>
       <c r="B699" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14208,7 +14208,7 @@
         <v>697</v>
       </c>
       <c r="B700" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14216,7 +14216,7 @@
         <v>698</v>
       </c>
       <c r="B701" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14224,7 +14224,7 @@
         <v>699</v>
       </c>
       <c r="B702" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14232,7 +14232,7 @@
         <v>700</v>
       </c>
       <c r="B703" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14240,7 +14240,7 @@
         <v>701</v>
       </c>
       <c r="B704" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14248,7 +14248,7 @@
         <v>702</v>
       </c>
       <c r="B705" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14256,7 +14256,7 @@
         <v>703</v>
       </c>
       <c r="B706" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14264,7 +14264,7 @@
         <v>704</v>
       </c>
       <c r="B707" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14272,7 +14272,7 @@
         <v>705</v>
       </c>
       <c r="B708" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14280,7 +14280,7 @@
         <v>706</v>
       </c>
       <c r="B709" s="16" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14288,7 +14288,7 @@
         <v>707</v>
       </c>
       <c r="B710" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14296,7 +14296,7 @@
         <v>708</v>
       </c>
       <c r="B711" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14304,7 +14304,7 @@
         <v>709</v>
       </c>
       <c r="B712" s="16" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14312,7 +14312,7 @@
         <v>710</v>
       </c>
       <c r="B713" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14320,7 +14320,7 @@
         <v>711</v>
       </c>
       <c r="B714" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14328,7 +14328,7 @@
         <v>712</v>
       </c>
       <c r="B715" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14336,7 +14336,7 @@
         <v>713</v>
       </c>
       <c r="B716" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14344,7 +14344,7 @@
         <v>714</v>
       </c>
       <c r="B717" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14352,7 +14352,7 @@
         <v>715</v>
       </c>
       <c r="B718" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14360,7 +14360,7 @@
         <v>716</v>
       </c>
       <c r="B719" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14368,7 +14368,7 @@
         <v>717</v>
       </c>
       <c r="B720" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14376,7 +14376,7 @@
         <v>718</v>
       </c>
       <c r="B721" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14384,7 +14384,7 @@
         <v>719</v>
       </c>
       <c r="B722" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14392,7 +14392,7 @@
         <v>720</v>
       </c>
       <c r="B723" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14400,7 +14400,7 @@
         <v>721</v>
       </c>
       <c r="B724" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14408,7 +14408,7 @@
         <v>722</v>
       </c>
       <c r="B725" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14416,7 +14416,7 @@
         <v>723</v>
       </c>
       <c r="B726" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14424,7 +14424,7 @@
         <v>724</v>
       </c>
       <c r="B727" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14432,7 +14432,7 @@
         <v>725</v>
       </c>
       <c r="B728" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14440,7 +14440,7 @@
         <v>726</v>
       </c>
       <c r="B729" s="16" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14448,7 +14448,7 @@
         <v>727</v>
       </c>
       <c r="B730" s="16" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14456,7 +14456,7 @@
         <v>728</v>
       </c>
       <c r="B731" s="16" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14464,7 +14464,7 @@
         <v>729</v>
       </c>
       <c r="B732" s="16" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14472,7 +14472,7 @@
         <v>730</v>
       </c>
       <c r="B733" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14480,7 +14480,7 @@
         <v>731</v>
       </c>
       <c r="B734" s="16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14488,7 +14488,7 @@
         <v>732</v>
       </c>
       <c r="B735" s="16" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="736" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14496,7 +14496,7 @@
         <v>733</v>
       </c>
       <c r="B736" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="737" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14504,7 +14504,7 @@
         <v>734</v>
       </c>
       <c r="B737" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14512,7 +14512,7 @@
         <v>735</v>
       </c>
       <c r="B738" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14520,7 +14520,7 @@
         <v>736</v>
       </c>
       <c r="B739" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14528,7 +14528,7 @@
         <v>737</v>
       </c>
       <c r="B740" s="16" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14536,7 +14536,7 @@
         <v>738</v>
       </c>
       <c r="B741" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14544,7 +14544,7 @@
         <v>739</v>
       </c>
       <c r="B742" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="743" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14552,7 +14552,7 @@
         <v>740</v>
       </c>
       <c r="B743" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14560,7 +14560,7 @@
         <v>741</v>
       </c>
       <c r="B744" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="745" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14568,7 +14568,7 @@
         <v>742</v>
       </c>
       <c r="B745" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14576,7 +14576,7 @@
         <v>743</v>
       </c>
       <c r="B746" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14584,7 +14584,7 @@
         <v>744</v>
       </c>
       <c r="B747" s="16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14592,7 +14592,7 @@
         <v>745</v>
       </c>
       <c r="B748" s="16" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14600,7 +14600,7 @@
         <v>746</v>
       </c>
       <c r="B749" s="16" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14608,7 +14608,7 @@
         <v>747</v>
       </c>
       <c r="B750" s="16" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="751" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14616,7 +14616,7 @@
         <v>748</v>
       </c>
       <c r="B751" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14624,7 +14624,7 @@
         <v>749</v>
       </c>
       <c r="B752" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="753" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14632,7 +14632,7 @@
         <v>750</v>
       </c>
       <c r="B753" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14640,7 +14640,7 @@
         <v>751</v>
       </c>
       <c r="B754" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14648,7 +14648,7 @@
         <v>752</v>
       </c>
       <c r="B755" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14656,7 +14656,7 @@
         <v>753</v>
       </c>
       <c r="B756" s="16" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,7 +14664,7 @@
         <v>754</v>
       </c>
       <c r="B757" s="16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14672,7 +14672,7 @@
         <v>755</v>
       </c>
       <c r="B758" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14680,7 +14680,7 @@
         <v>756</v>
       </c>
       <c r="B759" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14688,7 +14688,7 @@
         <v>757</v>
       </c>
       <c r="B760" s="16" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="761" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14696,7 +14696,7 @@
         <v>758</v>
       </c>
       <c r="B761" s="16" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14704,7 +14704,7 @@
         <v>759</v>
       </c>
       <c r="B762" s="16" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="763" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14712,7 +14712,7 @@
         <v>760</v>
       </c>
       <c r="B763" s="16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14720,7 +14720,7 @@
         <v>761</v>
       </c>
       <c r="B764" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="765" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14728,7 +14728,7 @@
         <v>762</v>
       </c>
       <c r="B765" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14736,7 +14736,7 @@
         <v>763</v>
       </c>
       <c r="B766" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14744,7 +14744,7 @@
         <v>764</v>
       </c>
       <c r="B767" s="16" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14752,7 +14752,7 @@
         <v>765</v>
       </c>
       <c r="B768" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14760,7 +14760,7 @@
         <v>766</v>
       </c>
       <c r="B769" s="16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14768,7 +14768,7 @@
         <v>767</v>
       </c>
       <c r="B770" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="771" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14776,7 +14776,7 @@
         <v>768</v>
       </c>
       <c r="B771" s="16" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14784,7 +14784,7 @@
         <v>769</v>
       </c>
       <c r="B772" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14792,7 +14792,7 @@
         <v>770</v>
       </c>
       <c r="B773" s="16" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14800,7 +14800,7 @@
         <v>693</v>
       </c>
       <c r="B774" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -14817,7 +14817,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
